--- a/Code/Results/Cases/Case_5_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.54241307131857</v>
+        <v>17.96285899517177</v>
       </c>
       <c r="C2">
-        <v>10.90702987753712</v>
+        <v>8.714392610023912</v>
       </c>
       <c r="D2">
-        <v>4.729086703087217</v>
+        <v>8.018325215040361</v>
       </c>
       <c r="E2">
-        <v>7.452297115040079</v>
+        <v>12.81274015110884</v>
       </c>
       <c r="F2">
-        <v>24.45312735613285</v>
+        <v>36.38381813520184</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.968073422862927</v>
+        <v>10.0589417986614</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.593242961611049</v>
+        <v>10.95819561798788</v>
       </c>
       <c r="M2">
-        <v>12.37485965205044</v>
+        <v>16.91670573382476</v>
       </c>
       <c r="N2">
-        <v>12.90823784093659</v>
+        <v>19.49425914206329</v>
       </c>
       <c r="O2">
-        <v>18.30485086735218</v>
+        <v>28.01996576738952</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.32327754573599</v>
+        <v>17.62360461244322</v>
       </c>
       <c r="C3">
-        <v>10.43186282138533</v>
+        <v>8.516187486938055</v>
       </c>
       <c r="D3">
-        <v>4.68439827875806</v>
+        <v>8.023061227770759</v>
       </c>
       <c r="E3">
-        <v>7.513227170190677</v>
+        <v>12.84045685644295</v>
       </c>
       <c r="F3">
-        <v>24.13670662452477</v>
+        <v>36.45166563294431</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.015229779378721</v>
+        <v>10.07565284077258</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.500044068479848</v>
+        <v>10.96114853881366</v>
       </c>
       <c r="M3">
-        <v>11.87603649155022</v>
+        <v>16.84883679745128</v>
       </c>
       <c r="N3">
-        <v>13.09448169682683</v>
+        <v>19.55327155283014</v>
       </c>
       <c r="O3">
-        <v>18.15291568082595</v>
+        <v>28.0866397459683</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.53703884086005</v>
+        <v>17.4149198962931</v>
       </c>
       <c r="C4">
-        <v>10.12841858636608</v>
+        <v>8.391035433927787</v>
       </c>
       <c r="D4">
-        <v>4.65807697963337</v>
+        <v>8.026676513517348</v>
       </c>
       <c r="E4">
-        <v>7.552490778927064</v>
+        <v>12.85848449738514</v>
       </c>
       <c r="F4">
-        <v>23.96114437275038</v>
+        <v>36.5014064122886</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.045032489284006</v>
+        <v>10.08643842088905</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.444273553089372</v>
+        <v>10.96409290700709</v>
       </c>
       <c r="M4">
-        <v>11.5629497720802</v>
+        <v>16.80930443695769</v>
       </c>
       <c r="N4">
-        <v>13.21199758414143</v>
+        <v>19.59135150766554</v>
       </c>
       <c r="O4">
-        <v>18.07457010391586</v>
+        <v>28.13351603022223</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.2073067731085</v>
+        <v>17.32989696240417</v>
       </c>
       <c r="C5">
-        <v>10.00192221006851</v>
+        <v>8.339211677544647</v>
       </c>
       <c r="D5">
-        <v>4.647636536039673</v>
+        <v>8.028328138739599</v>
       </c>
       <c r="E5">
-        <v>7.568955584962847</v>
+        <v>12.8660853536798</v>
       </c>
       <c r="F5">
-        <v>23.89424961066139</v>
+        <v>36.52370500449146</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.05739496386511</v>
+        <v>10.0909660190077</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.421929830700552</v>
+        <v>10.96557811437723</v>
       </c>
       <c r="M5">
-        <v>11.43383281188246</v>
+        <v>16.79374380987201</v>
       </c>
       <c r="N5">
-        <v>13.26069232791397</v>
+        <v>19.607334841653</v>
       </c>
       <c r="O5">
-        <v>18.04630714718809</v>
+        <v>28.15410887254716</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.15199634557368</v>
+        <v>17.31578340534568</v>
       </c>
       <c r="C6">
-        <v>9.980749253729989</v>
+        <v>8.33055802827554</v>
       </c>
       <c r="D6">
-        <v>4.645920293056752</v>
+        <v>8.028613176962969</v>
       </c>
       <c r="E6">
-        <v>7.571717580788273</v>
+        <v>12.86736285587677</v>
       </c>
       <c r="F6">
-        <v>23.88342052367685</v>
+        <v>36.52753009212138</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.05946100906961</v>
+        <v>10.09172583047278</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.418243321230474</v>
+        <v>10.96584199153632</v>
       </c>
       <c r="M6">
-        <v>11.41230621758057</v>
+        <v>16.79119346037598</v>
       </c>
       <c r="N6">
-        <v>13.26882706237572</v>
+        <v>19.61001700996806</v>
       </c>
       <c r="O6">
-        <v>18.04183246571904</v>
+        <v>28.15761822581533</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.53262952876521</v>
+        <v>17.4137730235746</v>
       </c>
       <c r="C7">
-        <v>10.12672396953258</v>
+        <v>8.390339792512924</v>
       </c>
       <c r="D7">
-        <v>4.657935013467903</v>
+        <v>8.026698065060598</v>
       </c>
       <c r="E7">
-        <v>7.552710949474226</v>
+        <v>12.85858597413648</v>
       </c>
       <c r="F7">
-        <v>23.96022347446667</v>
+        <v>36.5016989293154</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.045198327246674</v>
+        <v>10.08649894511634</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.443970643353413</v>
+        <v>10.96411178051006</v>
       </c>
       <c r="M7">
-        <v>11.56121440319339</v>
+        <v>16.80909234319093</v>
       </c>
       <c r="N7">
-        <v>13.21265102003016</v>
+        <v>19.5915651783074</v>
       </c>
       <c r="O7">
-        <v>18.07417423654264</v>
+        <v>28.13378772196575</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.12994910839986</v>
+        <v>17.84603063436433</v>
       </c>
       <c r="C8">
-        <v>10.74567288047811</v>
+        <v>8.646794423067995</v>
       </c>
       <c r="D8">
-        <v>4.713449087622909</v>
+        <v>8.019811683058027</v>
       </c>
       <c r="E8">
-        <v>7.472920562125005</v>
+        <v>12.82208772043336</v>
       </c>
       <c r="F8">
-        <v>24.3401083395954</v>
+        <v>36.40553254851267</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.984159449076341</v>
+        <v>10.06459505047866</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.56081690532357</v>
+        <v>10.95897953747856</v>
       </c>
       <c r="M8">
-        <v>12.20437978197157</v>
+        <v>16.8928673387155</v>
       </c>
       <c r="N8">
-        <v>12.97180527572806</v>
+        <v>19.51422420345066</v>
       </c>
       <c r="O8">
-        <v>18.24930801097329</v>
+        <v>28.04172085213533</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.9653024875779</v>
+        <v>18.68580417460878</v>
       </c>
       <c r="C9">
-        <v>11.86313575779637</v>
+        <v>9.120460861147684</v>
       </c>
       <c r="D9">
-        <v>4.830962693780378</v>
+        <v>8.011898067653485</v>
       </c>
       <c r="E9">
-        <v>7.331212997387357</v>
+        <v>12.75849692486798</v>
       </c>
       <c r="F9">
-        <v>25.23561401138234</v>
+        <v>36.28121590091523</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.870991832393561</v>
+        <v>10.02578884954097</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.800702629164144</v>
+        <v>10.95785121921187</v>
       </c>
       <c r="M9">
-        <v>13.40478066912803</v>
+        <v>17.07361231522706</v>
       </c>
       <c r="N9">
-        <v>12.52408528828751</v>
+        <v>19.37715044432065</v>
       </c>
       <c r="O9">
-        <v>18.7151113492063</v>
+        <v>27.9084127770012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.96343001642751</v>
+        <v>19.29171971125373</v>
       </c>
       <c r="C10">
-        <v>12.62171548962309</v>
+        <v>9.448374094535202</v>
       </c>
       <c r="D10">
-        <v>4.922275681512966</v>
+        <v>8.009462304038788</v>
       </c>
       <c r="E10">
-        <v>7.23620432859355</v>
+        <v>12.71660455820034</v>
       </c>
       <c r="F10">
-        <v>25.98728899541277</v>
+        <v>36.2292168087523</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.791529196640286</v>
+        <v>9.999781073023453</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.982452790366598</v>
+        <v>10.96241448552366</v>
       </c>
       <c r="M10">
-        <v>14.2419362461696</v>
+        <v>17.21572265118276</v>
       </c>
       <c r="N10">
-        <v>12.20942457961974</v>
+        <v>19.28525864185478</v>
       </c>
       <c r="O10">
-        <v>19.13656795664643</v>
+        <v>27.83941493266191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.82508251671473</v>
+        <v>19.56372346085536</v>
       </c>
       <c r="C11">
-        <v>12.95272933557566</v>
+        <v>9.592765311697386</v>
       </c>
       <c r="D11">
-        <v>4.964832272475136</v>
+        <v>8.009081096547705</v>
       </c>
       <c r="E11">
-        <v>7.194988969943683</v>
+        <v>12.69858683440568</v>
       </c>
       <c r="F11">
-        <v>26.34982967901477</v>
+        <v>36.21412465905367</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.75610926214664</v>
+        <v>9.988487638915771</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.066115434446325</v>
+        <v>10.96564845905674</v>
       </c>
       <c r="M11">
-        <v>14.61182031254013</v>
+        <v>17.2822325246727</v>
       </c>
       <c r="N11">
-        <v>12.06922983767295</v>
+        <v>19.2453523562526</v>
       </c>
       <c r="O11">
-        <v>19.34633977640584</v>
+        <v>27.8143368869849</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.1446434055618</v>
+        <v>19.66610556126149</v>
       </c>
       <c r="C12">
-        <v>13.07602240771637</v>
+        <v>9.646723727496893</v>
       </c>
       <c r="D12">
-        <v>4.981088262314853</v>
+        <v>8.009040651571013</v>
       </c>
       <c r="E12">
-        <v>7.179673209066347</v>
+        <v>12.69191283547247</v>
       </c>
       <c r="F12">
-        <v>26.49008451403405</v>
+        <v>36.20964161622678</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.742795310969385</v>
+        <v>9.984288019403836</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.097920439352541</v>
+        <v>10.96703841236307</v>
       </c>
       <c r="M12">
-        <v>14.75023230965039</v>
+        <v>17.30767156349978</v>
       </c>
       <c r="N12">
-        <v>12.01655417042311</v>
+        <v>19.23051226962881</v>
       </c>
       <c r="O12">
-        <v>19.42842893565127</v>
+        <v>27.80574936777032</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.07611825705093</v>
+        <v>19.64408480880274</v>
       </c>
       <c r="C13">
-        <v>13.04956082530163</v>
+        <v>9.635135298810173</v>
       </c>
       <c r="D13">
-        <v>4.977581072093487</v>
+        <v>8.009044750607297</v>
       </c>
       <c r="E13">
-        <v>7.182958704683467</v>
+        <v>12.69334358560973</v>
       </c>
       <c r="F13">
-        <v>26.45974603128666</v>
+        <v>36.21055232008109</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.745658411355622</v>
+        <v>9.985189065416224</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.091065427724363</v>
+        <v>10.96673172853469</v>
       </c>
       <c r="M13">
-        <v>14.72049754987126</v>
+        <v>17.30218178876153</v>
       </c>
       <c r="N13">
-        <v>12.02788061172386</v>
+        <v>19.23369628672435</v>
       </c>
       <c r="O13">
-        <v>19.41063070290178</v>
+        <v>27.80755839236495</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.85150738477589</v>
+        <v>19.57215946040286</v>
       </c>
       <c r="C14">
-        <v>12.96291405761153</v>
+        <v>9.597219096484078</v>
       </c>
       <c r="D14">
-        <v>4.966166873492021</v>
+        <v>8.00907569016184</v>
       </c>
       <c r="E14">
-        <v>7.193723068060047</v>
+        <v>12.69803477890013</v>
       </c>
       <c r="F14">
-        <v>26.36130900983233</v>
+        <v>36.21373114282498</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.755011970000677</v>
+        <v>9.988140593327181</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.068729668198936</v>
+        <v>10.96575950532925</v>
       </c>
       <c r="M14">
-        <v>14.62324113179664</v>
+        <v>17.28432042096262</v>
       </c>
       <c r="N14">
-        <v>12.06488796000041</v>
+        <v>19.24412601692244</v>
       </c>
       <c r="O14">
-        <v>19.35303981599858</v>
+        <v>27.8136121604568</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.71305281191283</v>
+        <v>19.52801958121812</v>
       </c>
       <c r="C15">
-        <v>12.90957205141394</v>
+        <v>9.573899727104269</v>
       </c>
       <c r="D15">
-        <v>4.959193511472073</v>
+        <v>8.009108155274767</v>
       </c>
       <c r="E15">
-        <v>7.200354634090105</v>
+        <v>12.70092764861965</v>
       </c>
       <c r="F15">
-        <v>26.30140021498058</v>
+        <v>36.21583872077904</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.76075398223697</v>
+        <v>9.989958501312991</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.055063983065788</v>
+        <v>10.96518548261167</v>
       </c>
       <c r="M15">
-        <v>14.56345107888427</v>
+        <v>17.27341234746301</v>
       </c>
       <c r="N15">
-        <v>12.08760951243804</v>
+        <v>19.25054986180282</v>
       </c>
       <c r="O15">
-        <v>19.31811087444398</v>
+        <v>27.81743869083292</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.90617333212318</v>
+        <v>19.27386209191121</v>
       </c>
       <c r="C16">
-        <v>12.59979693912895</v>
+        <v>9.438838816352527</v>
       </c>
       <c r="D16">
-        <v>4.919514503608516</v>
+        <v>8.009501791143467</v>
       </c>
       <c r="E16">
-        <v>7.238938461423914</v>
+        <v>12.71780292710943</v>
       </c>
       <c r="F16">
-        <v>25.96401125484797</v>
+        <v>36.23037549471332</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.793858127528543</v>
+        <v>10.00052991389302</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.977003500112054</v>
+        <v>10.96222633928005</v>
       </c>
       <c r="M16">
-        <v>14.21753592487189</v>
+        <v>17.21141231557403</v>
       </c>
       <c r="N16">
-        <v>12.21864500171459</v>
+        <v>19.28790466876906</v>
       </c>
       <c r="O16">
-        <v>19.12322712118686</v>
+        <v>27.8411809568868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.39911416844924</v>
+        <v>19.11694359877257</v>
       </c>
       <c r="C17">
-        <v>12.40613111737305</v>
+        <v>9.354735670428187</v>
       </c>
       <c r="D17">
-        <v>4.895429343102518</v>
+        <v>8.009929008040805</v>
       </c>
       <c r="E17">
-        <v>7.263124039258793</v>
+        <v>12.72842117959557</v>
       </c>
       <c r="F17">
-        <v>25.76231593978018</v>
+        <v>36.24148713787632</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.814348835732538</v>
+        <v>10.00715258247365</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.929354976007772</v>
+        <v>10.96070677496988</v>
       </c>
       <c r="M17">
-        <v>14.00246241464473</v>
+        <v>17.1738441449857</v>
       </c>
       <c r="N17">
-        <v>12.29977790613799</v>
+        <v>19.31130542876007</v>
       </c>
       <c r="O17">
-        <v>19.00833783250613</v>
+        <v>27.85736337945688</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.10300977240406</v>
+        <v>19.02635204333016</v>
       </c>
       <c r="C18">
-        <v>12.29341676842845</v>
+        <v>9.305913779604406</v>
       </c>
       <c r="D18">
-        <v>4.881672329388915</v>
+        <v>8.010243182677138</v>
       </c>
       <c r="E18">
-        <v>7.277223394819108</v>
+        <v>12.73462637507747</v>
       </c>
       <c r="F18">
-        <v>25.64824505751441</v>
+        <v>36.24868420036381</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.826203445326271</v>
+        <v>10.01101239178597</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.902042389052805</v>
+        <v>10.95994184624021</v>
       </c>
       <c r="M18">
-        <v>13.87773169783774</v>
+        <v>17.15241220314703</v>
       </c>
       <c r="N18">
-        <v>12.34672130968192</v>
+        <v>19.32494342608207</v>
       </c>
       <c r="O18">
-        <v>18.9439523567506</v>
+        <v>27.86726487181523</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.00198616505964</v>
+        <v>18.99562462771748</v>
       </c>
       <c r="C19">
-        <v>12.25502754607869</v>
+        <v>9.289307613175678</v>
       </c>
       <c r="D19">
-        <v>4.87703112695525</v>
+        <v>8.010361331449838</v>
       </c>
       <c r="E19">
-        <v>7.282029466665525</v>
+        <v>12.73674417105656</v>
       </c>
       <c r="F19">
-        <v>25.60995537479598</v>
+        <v>36.25125938932198</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.830229218981602</v>
+        <v>10.01232796266098</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.892811443329906</v>
+        <v>10.95970162603826</v>
       </c>
       <c r="M19">
-        <v>13.83532653376005</v>
+        <v>17.14518643425181</v>
       </c>
       <c r="N19">
-        <v>12.36266359897534</v>
+        <v>19.32959170733915</v>
       </c>
       <c r="O19">
-        <v>18.9224419507776</v>
+        <v>27.87071927384534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.45355227992742</v>
+        <v>19.13368336026623</v>
       </c>
       <c r="C20">
-        <v>12.4268843494839</v>
+        <v>9.363735201353499</v>
       </c>
       <c r="D20">
-        <v>4.897983341596801</v>
+        <v>8.009876450013937</v>
       </c>
       <c r="E20">
-        <v>7.260529916532546</v>
+        <v>12.72728072448044</v>
       </c>
       <c r="F20">
-        <v>25.78358602182458</v>
+        <v>36.24022086526027</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.812160475861088</v>
+        <v>10.00644235110757</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.934417688230435</v>
+        <v>10.96085725399258</v>
       </c>
       <c r="M20">
-        <v>14.02546419869024</v>
+        <v>17.17782520247752</v>
       </c>
       <c r="N20">
-        <v>12.29111248613988</v>
+        <v>19.3087959115764</v>
       </c>
       <c r="O20">
-        <v>19.02039204954566</v>
+        <v>27.85557926439636</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.91766302928688</v>
+        <v>19.59330325229788</v>
       </c>
       <c r="C21">
-        <v>12.98842028275966</v>
+        <v>9.608375772799448</v>
       </c>
       <c r="D21">
-        <v>4.969515724605906</v>
+        <v>8.009063787329286</v>
       </c>
       <c r="E21">
-        <v>7.190553370554239</v>
+        <v>12.69665282421984</v>
       </c>
       <c r="F21">
-        <v>26.3901417492649</v>
+        <v>36.21276400597509</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.752261970022409</v>
+        <v>9.987271572183634</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.075286998617984</v>
+        <v>10.9660405941819</v>
       </c>
       <c r="M21">
-        <v>14.65185318892626</v>
+        <v>17.28955998519712</v>
       </c>
       <c r="N21">
-        <v>12.05400687719602</v>
+        <v>19.24105519062005</v>
       </c>
       <c r="O21">
-        <v>19.36988321591794</v>
+        <v>27.81180934027643</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.8353646318048</v>
+        <v>19.89003723522547</v>
       </c>
       <c r="C22">
-        <v>13.3434320448893</v>
+        <v>9.764056180043747</v>
       </c>
       <c r="D22">
-        <v>5.01708414725517</v>
+        <v>8.009138034976843</v>
       </c>
       <c r="E22">
-        <v>7.146521236044431</v>
+        <v>12.67750351004437</v>
       </c>
       <c r="F22">
-        <v>26.80386522229948</v>
+        <v>36.20200043460336</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.713687786292736</v>
+        <v>9.97519077390297</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.168067284784291</v>
+        <v>10.97039119768085</v>
       </c>
       <c r="M22">
-        <v>15.05156071028574</v>
+        <v>17.36405385631076</v>
       </c>
       <c r="N22">
-        <v>11.90144759341986</v>
+        <v>19.19836508535598</v>
       </c>
       <c r="O22">
-        <v>19.61378381849981</v>
+        <v>27.78850202362442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.34912918569174</v>
+        <v>19.73202995252277</v>
       </c>
       <c r="C23">
-        <v>13.15506021247269</v>
+        <v>9.681361481444426</v>
       </c>
       <c r="D23">
-        <v>4.991622943947744</v>
+        <v>8.009043222692158</v>
       </c>
       <c r="E23">
-        <v>7.169865085290779</v>
+        <v>12.68764463068717</v>
       </c>
       <c r="F23">
-        <v>26.58146848605115</v>
+        <v>36.20708801009841</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.734225163642432</v>
+        <v>9.981597608989613</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.118488924184012</v>
+        <v>10.9679815028669</v>
       </c>
       <c r="M23">
-        <v>14.83913734646947</v>
+        <v>17.32416564143827</v>
       </c>
       <c r="N23">
-        <v>11.98265486254581</v>
+        <v>19.22100515289262</v>
       </c>
       <c r="O23">
-        <v>19.48217451471179</v>
+        <v>27.80045625373973</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.42895511003057</v>
+        <v>19.12611648091806</v>
       </c>
       <c r="C24">
-        <v>12.4175060882179</v>
+        <v>9.359667974525857</v>
       </c>
       <c r="D24">
-        <v>4.89682839853417</v>
+        <v>8.009899997901774</v>
       </c>
       <c r="E24">
-        <v>7.261702113078005</v>
+        <v>12.72779601077949</v>
       </c>
       <c r="F24">
-        <v>25.77396394237796</v>
+        <v>36.24079082769713</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.81314960171344</v>
+        <v>10.00676328361767</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.932128581810616</v>
+        <v>10.96078888378213</v>
       </c>
       <c r="M24">
-        <v>14.01506845622824</v>
+        <v>17.1760248466285</v>
       </c>
       <c r="N24">
-        <v>12.29502919034494</v>
+        <v>19.30992988921737</v>
       </c>
       <c r="O24">
-        <v>19.01493715351283</v>
+        <v>27.85638400018369</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.22661108074748</v>
+        <v>18.46012940756967</v>
       </c>
       <c r="C25">
-        <v>11.5715757779088</v>
+        <v>8.99569659200205</v>
       </c>
       <c r="D25">
-        <v>4.798276237886655</v>
+        <v>8.01344339678778</v>
       </c>
       <c r="E25">
-        <v>7.367958741775656</v>
+        <v>12.77484936061645</v>
       </c>
       <c r="F25">
-        <v>24.97699372521834</v>
+        <v>36.3079481096637</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.900937601864782</v>
+        <v>10.0358455719295</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.734764987798021</v>
+        <v>10.95720529110227</v>
       </c>
       <c r="M25">
-        <v>13.08742378712857</v>
+        <v>17.02302582784204</v>
       </c>
       <c r="N25">
-        <v>12.64264740189239</v>
+        <v>19.41267864351315</v>
       </c>
       <c r="O25">
-        <v>18.57549006016389</v>
+        <v>27.93940292395234</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.96285899517177</v>
+        <v>19.54241307131856</v>
       </c>
       <c r="C2">
-        <v>8.714392610023912</v>
+        <v>10.90702987753712</v>
       </c>
       <c r="D2">
-        <v>8.018325215040361</v>
+        <v>4.729086703087211</v>
       </c>
       <c r="E2">
-        <v>12.81274015110884</v>
+        <v>7.452297115040012</v>
       </c>
       <c r="F2">
-        <v>36.38381813520184</v>
+        <v>24.45312735613281</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.0589417986614</v>
+        <v>5.968073422862926</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.95819561798788</v>
+        <v>6.593242961611022</v>
       </c>
       <c r="M2">
-        <v>16.91670573382476</v>
+        <v>12.3748596520504</v>
       </c>
       <c r="N2">
-        <v>19.49425914206329</v>
+        <v>12.90823784093659</v>
       </c>
       <c r="O2">
-        <v>28.01996576738952</v>
+        <v>18.30485086735213</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.62360461244322</v>
+        <v>18.32327754573595</v>
       </c>
       <c r="C3">
-        <v>8.516187486938055</v>
+        <v>10.4318628213852</v>
       </c>
       <c r="D3">
-        <v>8.023061227770759</v>
+        <v>4.684398278757929</v>
       </c>
       <c r="E3">
-        <v>12.84045685644295</v>
+        <v>7.513227170190611</v>
       </c>
       <c r="F3">
-        <v>36.45166563294431</v>
+        <v>24.13670662452456</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.07565284077258</v>
+        <v>6.015229779378689</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.96114853881366</v>
+        <v>6.500044068479838</v>
       </c>
       <c r="M3">
-        <v>16.84883679745128</v>
+        <v>11.87603649155015</v>
       </c>
       <c r="N3">
-        <v>19.55327155283014</v>
+        <v>13.09448169682676</v>
       </c>
       <c r="O3">
-        <v>28.0866397459683</v>
+        <v>18.15291568082581</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.4149198962931</v>
+        <v>17.53703884086002</v>
       </c>
       <c r="C4">
-        <v>8.391035433927787</v>
+        <v>10.12841858636576</v>
       </c>
       <c r="D4">
-        <v>8.026676513517348</v>
+        <v>4.658076979633186</v>
       </c>
       <c r="E4">
-        <v>12.85848449738514</v>
+        <v>7.552490778926869</v>
       </c>
       <c r="F4">
-        <v>36.5014064122886</v>
+        <v>23.96114437275029</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.08643842088905</v>
+        <v>6.045032489283907</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.96409290700709</v>
+        <v>6.444273553089324</v>
       </c>
       <c r="M4">
-        <v>16.80930443695769</v>
+        <v>11.56294977208016</v>
       </c>
       <c r="N4">
-        <v>19.59135150766554</v>
+        <v>13.21199758414139</v>
       </c>
       <c r="O4">
-        <v>28.13351603022223</v>
+        <v>18.07457010391584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32989696240417</v>
+        <v>17.2073067731085</v>
       </c>
       <c r="C5">
-        <v>8.339211677544647</v>
+        <v>10.00192221006872</v>
       </c>
       <c r="D5">
-        <v>8.028328138739599</v>
+        <v>4.647636536039673</v>
       </c>
       <c r="E5">
-        <v>12.8660853536798</v>
+        <v>7.568955584962911</v>
       </c>
       <c r="F5">
-        <v>36.52370500449146</v>
+        <v>23.89424961066145</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.0909660190077</v>
+        <v>6.057394963865145</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.96557811437723</v>
+        <v>6.42192983070055</v>
       </c>
       <c r="M5">
-        <v>16.79374380987201</v>
+        <v>11.43383281188249</v>
       </c>
       <c r="N5">
-        <v>19.607334841653</v>
+        <v>13.26069232791396</v>
       </c>
       <c r="O5">
-        <v>28.15410887254716</v>
+        <v>18.04630714718814</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.31578340534568</v>
+        <v>17.15199634557372</v>
       </c>
       <c r="C6">
-        <v>8.33055802827554</v>
+        <v>9.98074925373005</v>
       </c>
       <c r="D6">
-        <v>8.028613176962969</v>
+        <v>4.64592029305663</v>
       </c>
       <c r="E6">
-        <v>12.86736285587677</v>
+        <v>7.571717580788142</v>
       </c>
       <c r="F6">
-        <v>36.52753009212138</v>
+        <v>23.88342052367699</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.09172583047278</v>
+        <v>6.059461009069543</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.96584199153632</v>
+        <v>6.418243321230412</v>
       </c>
       <c r="M6">
-        <v>16.79119346037598</v>
+        <v>11.41230621758058</v>
       </c>
       <c r="N6">
-        <v>19.61001700996806</v>
+        <v>13.26882706237575</v>
       </c>
       <c r="O6">
-        <v>28.15761822581533</v>
+        <v>18.04183246571922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.4137730235746</v>
+        <v>17.53262952876516</v>
       </c>
       <c r="C7">
-        <v>8.390339792512924</v>
+        <v>10.12672396953266</v>
       </c>
       <c r="D7">
-        <v>8.026698065060598</v>
+        <v>4.657935013467957</v>
       </c>
       <c r="E7">
-        <v>12.85858597413648</v>
+        <v>7.552710949474157</v>
       </c>
       <c r="F7">
-        <v>36.5016989293154</v>
+        <v>23.96022347446629</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.08649894511634</v>
+        <v>6.045198327246708</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.96411178051006</v>
+        <v>6.443970643353361</v>
       </c>
       <c r="M7">
-        <v>16.80909234319093</v>
+        <v>11.5612144031933</v>
       </c>
       <c r="N7">
-        <v>19.5915651783074</v>
+        <v>13.21265102003</v>
       </c>
       <c r="O7">
-        <v>28.13378772196575</v>
+        <v>18.07417423654231</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.84603063436433</v>
+        <v>19.12994910839985</v>
       </c>
       <c r="C8">
-        <v>8.646794423067995</v>
+        <v>10.74567288047801</v>
       </c>
       <c r="D8">
-        <v>8.019811683058027</v>
+        <v>4.713449087622912</v>
       </c>
       <c r="E8">
-        <v>12.82208772043336</v>
+        <v>7.472920562124941</v>
       </c>
       <c r="F8">
-        <v>36.40553254851267</v>
+        <v>24.34010833959544</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.06459505047866</v>
+        <v>5.984159449076276</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.95897953747856</v>
+        <v>6.560816905323574</v>
       </c>
       <c r="M8">
-        <v>16.8928673387155</v>
+        <v>12.20437978197157</v>
       </c>
       <c r="N8">
-        <v>19.51422420345066</v>
+        <v>12.97180527572806</v>
       </c>
       <c r="O8">
-        <v>28.04172085213533</v>
+        <v>18.24930801097331</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.68580417460878</v>
+        <v>21.96530248757793</v>
       </c>
       <c r="C9">
-        <v>9.120460861147684</v>
+        <v>11.86313575779625</v>
       </c>
       <c r="D9">
-        <v>8.011898067653485</v>
+        <v>4.830962693780387</v>
       </c>
       <c r="E9">
-        <v>12.75849692486798</v>
+        <v>7.331212997387357</v>
       </c>
       <c r="F9">
-        <v>36.28121590091523</v>
+        <v>25.23561401138232</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.02578884954097</v>
+        <v>5.870991832393559</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.95785121921187</v>
+        <v>6.800702629164195</v>
       </c>
       <c r="M9">
-        <v>17.07361231522706</v>
+        <v>13.40478066912804</v>
       </c>
       <c r="N9">
-        <v>19.37715044432065</v>
+        <v>12.52408528828752</v>
       </c>
       <c r="O9">
-        <v>27.9084127770012</v>
+        <v>18.71511134920628</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.29171971125373</v>
+        <v>23.96343001642754</v>
       </c>
       <c r="C10">
-        <v>9.448374094535202</v>
+        <v>12.62171548962296</v>
       </c>
       <c r="D10">
-        <v>8.009462304038788</v>
+        <v>4.92227568151297</v>
       </c>
       <c r="E10">
-        <v>12.71660455820034</v>
+        <v>7.236204328593485</v>
       </c>
       <c r="F10">
-        <v>36.2292168087523</v>
+        <v>25.98728899541269</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.999781073023453</v>
+        <v>5.791529196640253</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.96241448552366</v>
+        <v>6.982452790366571</v>
       </c>
       <c r="M10">
-        <v>17.21572265118276</v>
+        <v>14.24193624616958</v>
       </c>
       <c r="N10">
-        <v>19.28525864185478</v>
+        <v>12.20942457961971</v>
       </c>
       <c r="O10">
-        <v>27.83941493266191</v>
+        <v>19.13656795664634</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.56372346085536</v>
+        <v>24.82508251671475</v>
       </c>
       <c r="C11">
-        <v>9.592765311697386</v>
+        <v>12.95272933557583</v>
       </c>
       <c r="D11">
-        <v>8.009081096547705</v>
+        <v>4.964832272475141</v>
       </c>
       <c r="E11">
-        <v>12.69858683440568</v>
+        <v>7.194988969943681</v>
       </c>
       <c r="F11">
-        <v>36.21412465905367</v>
+        <v>26.34982967901469</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.988487638915771</v>
+        <v>5.756109262146674</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.96564845905674</v>
+        <v>7.066115434446261</v>
       </c>
       <c r="M11">
-        <v>17.2822325246727</v>
+        <v>14.61182031254011</v>
       </c>
       <c r="N11">
-        <v>19.2453523562526</v>
+        <v>12.06922983767292</v>
       </c>
       <c r="O11">
-        <v>27.8143368869849</v>
+        <v>19.34633977640577</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.66610556126149</v>
+        <v>25.14464340556187</v>
       </c>
       <c r="C12">
-        <v>9.646723727496893</v>
+        <v>13.0760224077162</v>
       </c>
       <c r="D12">
-        <v>8.009040651571013</v>
+        <v>4.981088262314667</v>
       </c>
       <c r="E12">
-        <v>12.69191283547247</v>
+        <v>7.179673209066287</v>
       </c>
       <c r="F12">
-        <v>36.20964161622678</v>
+        <v>26.49008451403398</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.984288019403836</v>
+        <v>5.742795310969419</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.96703841236307</v>
+        <v>7.097920439352539</v>
       </c>
       <c r="M12">
-        <v>17.30767156349978</v>
+        <v>14.75023230965039</v>
       </c>
       <c r="N12">
-        <v>19.23051226962881</v>
+        <v>12.01655417042311</v>
       </c>
       <c r="O12">
-        <v>27.80574936777032</v>
+        <v>19.42842893565126</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.64408480880274</v>
+        <v>25.07611825705094</v>
       </c>
       <c r="C13">
-        <v>9.635135298810173</v>
+        <v>13.04956082530155</v>
       </c>
       <c r="D13">
-        <v>8.009044750607297</v>
+        <v>4.977581072093384</v>
       </c>
       <c r="E13">
-        <v>12.69334358560973</v>
+        <v>7.182958704683339</v>
       </c>
       <c r="F13">
-        <v>36.21055232008109</v>
+        <v>26.45974603128667</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.985189065416224</v>
+        <v>5.745658411355521</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.96673172853469</v>
+        <v>7.091065427724318</v>
       </c>
       <c r="M13">
-        <v>17.30218178876153</v>
+        <v>14.72049754987125</v>
       </c>
       <c r="N13">
-        <v>19.23369628672435</v>
+        <v>12.02788061172386</v>
       </c>
       <c r="O13">
-        <v>27.80755839236495</v>
+        <v>19.41063070290182</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.57215946040286</v>
+        <v>24.85150738477593</v>
       </c>
       <c r="C14">
-        <v>9.597219096484078</v>
+        <v>12.96291405761131</v>
       </c>
       <c r="D14">
-        <v>8.00907569016184</v>
+        <v>4.966166873491973</v>
       </c>
       <c r="E14">
-        <v>12.69803477890013</v>
+        <v>7.193723068059916</v>
       </c>
       <c r="F14">
-        <v>36.21373114282498</v>
+        <v>26.36130900983222</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.988140593327181</v>
+        <v>5.755011970000642</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.96575950532925</v>
+        <v>7.068729668198912</v>
       </c>
       <c r="M14">
-        <v>17.28432042096262</v>
+        <v>14.62324113179661</v>
       </c>
       <c r="N14">
-        <v>19.24412601692244</v>
+        <v>12.06488796000034</v>
       </c>
       <c r="O14">
-        <v>27.8136121604568</v>
+        <v>19.35303981599851</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.52801958121812</v>
+        <v>24.71305281191279</v>
       </c>
       <c r="C15">
-        <v>9.573899727104269</v>
+        <v>12.90957205141384</v>
       </c>
       <c r="D15">
-        <v>8.009108155274767</v>
+        <v>4.959193511472033</v>
       </c>
       <c r="E15">
-        <v>12.70092764861965</v>
+        <v>7.200354634090044</v>
       </c>
       <c r="F15">
-        <v>36.21583872077904</v>
+        <v>26.30140021498069</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.989958501312991</v>
+        <v>5.76075398223697</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.96518548261167</v>
+        <v>7.055063983065795</v>
       </c>
       <c r="M15">
-        <v>17.27341234746301</v>
+        <v>14.56345107888427</v>
       </c>
       <c r="N15">
-        <v>19.25054986180282</v>
+        <v>12.0876095124381</v>
       </c>
       <c r="O15">
-        <v>27.81743869083292</v>
+        <v>19.31811087444409</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.27386209191121</v>
+        <v>23.90617333212318</v>
       </c>
       <c r="C16">
-        <v>9.438838816352527</v>
+        <v>12.59979693912887</v>
       </c>
       <c r="D16">
-        <v>8.009501791143467</v>
+        <v>4.919514503608495</v>
       </c>
       <c r="E16">
-        <v>12.71780292710943</v>
+        <v>7.238938461423912</v>
       </c>
       <c r="F16">
-        <v>36.23037549471332</v>
+        <v>25.96401125484811</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.00052991389302</v>
+        <v>5.793858127528541</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.96222633928005</v>
+        <v>6.977003500112075</v>
       </c>
       <c r="M16">
-        <v>17.21141231557403</v>
+        <v>14.2175359248719</v>
       </c>
       <c r="N16">
-        <v>19.28790466876906</v>
+        <v>12.21864500171465</v>
       </c>
       <c r="O16">
-        <v>27.8411809568868</v>
+        <v>19.12322712118696</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.11694359877257</v>
+        <v>23.39911416844924</v>
       </c>
       <c r="C17">
-        <v>9.354735670428187</v>
+        <v>12.40613111737295</v>
       </c>
       <c r="D17">
-        <v>8.009929008040805</v>
+        <v>4.895429343102528</v>
       </c>
       <c r="E17">
-        <v>12.72842117959557</v>
+        <v>7.263124039258857</v>
       </c>
       <c r="F17">
-        <v>36.24148713787632</v>
+        <v>25.76231593978014</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.00715258247365</v>
+        <v>5.814348835732605</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.96070677496988</v>
+        <v>6.929354976007822</v>
       </c>
       <c r="M17">
-        <v>17.1738441449857</v>
+        <v>14.00246241464473</v>
       </c>
       <c r="N17">
-        <v>19.31130542876007</v>
+        <v>12.29977790613796</v>
       </c>
       <c r="O17">
-        <v>27.85736337945688</v>
+        <v>19.00833783250612</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.02635204333016</v>
+        <v>23.10300977240405</v>
       </c>
       <c r="C18">
-        <v>9.305913779604406</v>
+        <v>12.29341676842839</v>
       </c>
       <c r="D18">
-        <v>8.010243182677138</v>
+        <v>4.881672329388918</v>
       </c>
       <c r="E18">
-        <v>12.73462637507747</v>
+        <v>7.277223394819045</v>
       </c>
       <c r="F18">
-        <v>36.24868420036381</v>
+        <v>25.64824505751443</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.01101239178597</v>
+        <v>5.826203445326236</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.95994184624021</v>
+        <v>6.902042389052815</v>
       </c>
       <c r="M18">
-        <v>17.15241220314703</v>
+        <v>13.87773169783774</v>
       </c>
       <c r="N18">
-        <v>19.32494342608207</v>
+        <v>12.34672130968189</v>
       </c>
       <c r="O18">
-        <v>27.86726487181523</v>
+        <v>18.94395235675062</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.99562462771748</v>
+        <v>23.00198616505962</v>
       </c>
       <c r="C19">
-        <v>9.289307613175678</v>
+        <v>12.2550275460786</v>
       </c>
       <c r="D19">
-        <v>8.010361331449838</v>
+        <v>4.877031126955091</v>
       </c>
       <c r="E19">
-        <v>12.73674417105656</v>
+        <v>7.28202946666546</v>
       </c>
       <c r="F19">
-        <v>36.25125938932198</v>
+        <v>25.60995537479604</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.01232796266098</v>
+        <v>5.830229218981602</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.95970162603826</v>
+        <v>6.89281144332993</v>
       </c>
       <c r="M19">
-        <v>17.14518643425181</v>
+        <v>13.83532653376007</v>
       </c>
       <c r="N19">
-        <v>19.32959170733915</v>
+        <v>12.36266359897537</v>
       </c>
       <c r="O19">
-        <v>27.87071927384534</v>
+        <v>18.92244195077769</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.13368336026623</v>
+        <v>23.45355227992742</v>
       </c>
       <c r="C20">
-        <v>9.363735201353499</v>
+        <v>12.4268843494839</v>
       </c>
       <c r="D20">
-        <v>8.009876450013937</v>
+        <v>4.897983341596806</v>
       </c>
       <c r="E20">
-        <v>12.72728072448044</v>
+        <v>7.260529916532548</v>
       </c>
       <c r="F20">
-        <v>36.24022086526027</v>
+        <v>25.78358602182461</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.00644235110757</v>
+        <v>5.812160475861122</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.96085725399258</v>
+        <v>6.934417688230464</v>
       </c>
       <c r="M20">
-        <v>17.17782520247752</v>
+        <v>14.02546419869024</v>
       </c>
       <c r="N20">
-        <v>19.3087959115764</v>
+        <v>12.29111248613992</v>
       </c>
       <c r="O20">
-        <v>27.85557926439636</v>
+        <v>19.0203920495457</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.59330325229788</v>
+        <v>24.91766302928696</v>
       </c>
       <c r="C21">
-        <v>9.608375772799448</v>
+        <v>12.98842028275959</v>
       </c>
       <c r="D21">
-        <v>8.009063787329286</v>
+        <v>4.969515724605912</v>
       </c>
       <c r="E21">
-        <v>12.69665282421984</v>
+        <v>7.190553370554174</v>
       </c>
       <c r="F21">
-        <v>36.21276400597509</v>
+        <v>26.39014174926482</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.987271572183634</v>
+        <v>5.752261970022342</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.9660405941819</v>
+        <v>7.075286998617965</v>
       </c>
       <c r="M21">
-        <v>17.28955998519712</v>
+        <v>14.65185318892623</v>
       </c>
       <c r="N21">
-        <v>19.24105519062005</v>
+        <v>12.05400687719591</v>
       </c>
       <c r="O21">
-        <v>27.81180934027643</v>
+        <v>19.36988321591787</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.89003723522547</v>
+        <v>25.83536463180481</v>
       </c>
       <c r="C22">
-        <v>9.764056180043747</v>
+        <v>13.34343204488921</v>
       </c>
       <c r="D22">
-        <v>8.009138034976843</v>
+        <v>5.017084147255019</v>
       </c>
       <c r="E22">
-        <v>12.67750351004437</v>
+        <v>7.146521236044305</v>
       </c>
       <c r="F22">
-        <v>36.20200043460336</v>
+        <v>26.80386522229943</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.97519077390297</v>
+        <v>5.713687786292736</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.97039119768085</v>
+        <v>7.168067284784247</v>
       </c>
       <c r="M22">
-        <v>17.36405385631076</v>
+        <v>15.05156071028571</v>
       </c>
       <c r="N22">
-        <v>19.19836508535598</v>
+        <v>11.90144759341982</v>
       </c>
       <c r="O22">
-        <v>27.78850202362442</v>
+        <v>19.61378381849978</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.73202995252277</v>
+        <v>25.34912918569172</v>
       </c>
       <c r="C23">
-        <v>9.681361481444426</v>
+        <v>13.15506021247293</v>
       </c>
       <c r="D23">
-        <v>8.009043222692158</v>
+        <v>4.991622943947732</v>
       </c>
       <c r="E23">
-        <v>12.68764463068717</v>
+        <v>7.169865085290835</v>
       </c>
       <c r="F23">
-        <v>36.20708801009841</v>
+        <v>26.58146848605124</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.981597608989613</v>
+        <v>5.734225163642531</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.9679815028669</v>
+        <v>7.118488924183981</v>
       </c>
       <c r="M23">
-        <v>17.32416564143827</v>
+        <v>14.83913734646947</v>
       </c>
       <c r="N23">
-        <v>19.22100515289262</v>
+        <v>11.98265486254597</v>
       </c>
       <c r="O23">
-        <v>27.80045625373973</v>
+        <v>19.48217451471193</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.12611648091806</v>
+        <v>23.42895511003054</v>
       </c>
       <c r="C24">
-        <v>9.359667974525857</v>
+        <v>12.41750608821782</v>
       </c>
       <c r="D24">
-        <v>8.009899997901774</v>
+        <v>4.896828398534082</v>
       </c>
       <c r="E24">
-        <v>12.72779601077949</v>
+        <v>7.261702113077884</v>
       </c>
       <c r="F24">
-        <v>36.24079082769713</v>
+        <v>25.77396394237784</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.00676328361767</v>
+        <v>5.813149601713407</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.96078888378213</v>
+        <v>6.93212858181065</v>
       </c>
       <c r="M24">
-        <v>17.1760248466285</v>
+        <v>14.01506845622824</v>
       </c>
       <c r="N24">
-        <v>19.30992988921737</v>
+        <v>12.29502919034492</v>
       </c>
       <c r="O24">
-        <v>27.85638400018369</v>
+        <v>19.0149371535128</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.46012940756967</v>
+        <v>21.22661108074748</v>
       </c>
       <c r="C25">
-        <v>8.99569659200205</v>
+        <v>11.57157577790911</v>
       </c>
       <c r="D25">
-        <v>8.01344339678778</v>
+        <v>4.798276237886634</v>
       </c>
       <c r="E25">
-        <v>12.77484936061645</v>
+        <v>7.36795874177572</v>
       </c>
       <c r="F25">
-        <v>36.3079481096637</v>
+        <v>24.97699372521813</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.0358455719295</v>
+        <v>5.900937601864851</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.95720529110227</v>
+        <v>6.734764987797965</v>
       </c>
       <c r="M25">
-        <v>17.02302582784204</v>
+        <v>13.08742378712854</v>
       </c>
       <c r="N25">
-        <v>19.41267864351315</v>
+        <v>12.64264740189229</v>
       </c>
       <c r="O25">
-        <v>27.93940292395234</v>
+        <v>18.57549006016369</v>
       </c>
     </row>
   </sheetData>
